--- a/analytics/tickers/past-2-days-2021-03-15.xlsx
+++ b/analytics/tickers/past-2-days-2021-03-15.xlsx
@@ -49,13 +49,13 @@
     <t xml:space="preserve">Biotechnology </t>
   </si>
   <si>
-    <t>RUBY, AEZS, SLGL, OCUP</t>
+    <t>RUBY, SLGL, OCUP</t>
   </si>
   <si>
     <t xml:space="preserve">Internet Retail </t>
   </si>
   <si>
-    <t>RMBL</t>
+    <t>OCG, RMBL, RMBL</t>
   </si>
   <si>
     <t xml:space="preserve">Internet Content Information </t>
@@ -100,10 +100,10 @@
     <t>ACEL</t>
   </si>
   <si>
-    <t xml:space="preserve">Banks - Regional </t>
-  </si>
-  <si>
-    <t>GNTY</t>
+    <t xml:space="preserve">Drug Manufacturers - Specialty Generic </t>
+  </si>
+  <si>
+    <t>ADMS</t>
   </si>
 </sst>
 </file>

--- a/analytics/tickers/past-2-days-2021-03-15.xlsx
+++ b/analytics/tickers/past-2-days-2021-03-15.xlsx
@@ -46,24 +46,18 @@
     <t>CHEK</t>
   </si>
   <si>
+    <t xml:space="preserve">Internet Retail </t>
+  </si>
+  <si>
+    <t>TKAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biotechnology </t>
   </si>
   <si>
     <t>RUBY, SLGL, OCUP</t>
   </si>
   <si>
-    <t xml:space="preserve">Internet Retail </t>
-  </si>
-  <si>
-    <t>OCG, RMBL, RMBL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet Content Information </t>
-  </si>
-  <si>
-    <t>LKCO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Telecom Services </t>
   </si>
   <si>
@@ -85,7 +79,13 @@
     <t xml:space="preserve">Exchange Traded Fund </t>
   </si>
   <si>
-    <t>CEZ, PXJ</t>
+    <t>CEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lodging </t>
+  </si>
+  <si>
+    <t>STAY</t>
   </si>
   <si>
     <t xml:space="preserve">Insurance - Property Casualty </t>
